--- a/PerformaceDataSheet.xlsx
+++ b/PerformaceDataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jqxs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jqxs\Documents\PythonScripts\BasicTextureSynthesis\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -228,6 +228,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Run time of the algorithm in seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -265,7 +290,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1914260717410323E-2"/>
+          <c:x val="0.10485926152434831"/>
           <c:y val="0.16708333333333336"/>
           <c:w val="0.87753018372703417"/>
           <c:h val="0.72088764946048411"/>
@@ -288,6 +313,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RPN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Density</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quilting </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NonParam </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$4:$D$7</c:f>
@@ -335,6 +380,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3362,7 +3408,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,7 +3482,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3766,7 +3810,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3841,7 +3884,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9698,8 +9740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
